--- a/odoo view optimize plan.xlsx
+++ b/odoo view optimize plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Work History\2023_10_17(ERP DB optimze)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Work History\2023_10_17(ERP DB optimze)\Muda-SQLs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F47CE86-DEAD-4109-8CF8-8A7DA54A6894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268E87BC-2FA1-4E73-8B35-78369A458E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3F1C02D6-CDC4-4E22-A125-7CC315B48768}"/>
   </bookViews>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBBEA61-59C7-44E6-8C5E-D830A2286FE3}">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,7 +812,10 @@
       <c r="H3" s="7">
         <v>12</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <f>E3-H3</f>
+        <v>2</v>
+      </c>
       <c r="J3" s="6">
         <v>5</v>
       </c>
@@ -830,11 +833,22 @@
       <c r="D4" s="3">
         <v>14743</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>14520</v>
+      </c>
+      <c r="G4" s="7">
+        <v>14743</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I67" si="0">E4-H4</f>
+        <v>0</v>
+      </c>
       <c r="J4" s="6">
         <v>4</v>
       </c>
@@ -852,11 +866,22 @@
       <c r="D5" s="3">
         <v>158996</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="E5" s="3">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7">
+        <v>26456</v>
+      </c>
+      <c r="G5" s="7">
+        <v>149181</v>
+      </c>
+      <c r="H5" s="7">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="J5" s="6">
         <v>3</v>
       </c>
@@ -874,11 +899,22 @@
       <c r="D6" s="3">
         <v>48244</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="E6" s="3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>48194</v>
+      </c>
+      <c r="G6" s="7">
+        <v>48244</v>
+      </c>
+      <c r="H6" s="7">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J6" s="6">
         <v>2</v>
       </c>
@@ -896,11 +932,22 @@
       <c r="D7" s="3">
         <v>48242</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="E7" s="3">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>48194</v>
+      </c>
+      <c r="G7" s="7">
+        <v>48242</v>
+      </c>
+      <c r="H7" s="7">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="J7" s="6">
         <v>1</v>
       </c>
@@ -931,7 +978,7 @@
         <v>101</v>
       </c>
       <c r="I8" s="3">
-        <f>E8-H8</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
@@ -948,11 +995,22 @@
       <c r="D9" s="3">
         <v>60772</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>60761</v>
+      </c>
+      <c r="G9" s="7">
+        <v>60772</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -967,11 +1025,22 @@
       <c r="D10" s="3">
         <v>17279</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>17139</v>
+      </c>
+      <c r="G10" s="7">
+        <v>17279</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -986,11 +1055,22 @@
       <c r="D11" s="3">
         <v>17279</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>17139</v>
+      </c>
+      <c r="G11" s="7">
+        <v>17279</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1005,11 +1085,22 @@
       <c r="D12" s="3">
         <v>17324</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>17306</v>
+      </c>
+      <c r="G12" s="7">
+        <v>17324</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1024,11 +1115,22 @@
       <c r="D13" s="3">
         <v>17324</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>17306</v>
+      </c>
+      <c r="G13" s="7">
+        <v>17324</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1043,11 +1145,22 @@
       <c r="D14" s="3">
         <v>36943</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="E14" s="3">
+        <v>30</v>
+      </c>
+      <c r="F14" s="7">
+        <v>33592</v>
+      </c>
+      <c r="G14" s="7">
+        <v>36943</v>
+      </c>
+      <c r="H14" s="7">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1062,11 +1175,22 @@
       <c r="D15" s="3">
         <v>454</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="E15" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>94</v>
+      </c>
+      <c r="G15" s="7">
+        <v>94</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1081,11 +1205,22 @@
       <c r="D16" s="3">
         <v>36697</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>33109</v>
+      </c>
+      <c r="G16" s="7">
+        <v>36697</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1100,11 +1235,22 @@
       <c r="D17" s="3">
         <v>28617</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="E17" s="3">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>17376</v>
+      </c>
+      <c r="G17" s="7">
+        <v>28617</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1119,11 +1265,22 @@
       <c r="D18" s="3">
         <v>39835</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>39333</v>
+      </c>
+      <c r="G18" s="7">
+        <v>39835</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1138,11 +1295,22 @@
       <c r="D19" s="3">
         <v>114831</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="E19" s="3">
+        <v>5</v>
+      </c>
+      <c r="F19" s="7">
+        <v>114062</v>
+      </c>
+      <c r="G19" s="7">
+        <v>114701</v>
+      </c>
+      <c r="H19" s="7">
+        <v>5</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
@@ -1157,11 +1325,22 @@
       <c r="D20" s="3">
         <v>858</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="E20" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>858</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
@@ -1176,11 +1355,22 @@
       <c r="D21" s="3">
         <v>1</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="E21" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
@@ -1195,11 +1385,22 @@
       <c r="D22" s="3">
         <v>15808</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+      <c r="F22" s="7">
+        <v>15662</v>
+      </c>
+      <c r="G22" s="7">
+        <v>15808</v>
+      </c>
+      <c r="H22" s="7">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
@@ -1214,11 +1415,22 @@
       <c r="D23" s="3">
         <v>15517</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>15514</v>
+      </c>
+      <c r="G23" s="7">
+        <v>15517</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
@@ -1233,11 +1445,22 @@
       <c r="D24" s="3">
         <v>15831</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="E24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="7">
+        <v>15800</v>
+      </c>
+      <c r="G24" s="7">
+        <v>15831</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
@@ -1252,11 +1475,22 @@
       <c r="D25" s="3">
         <v>9</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="E25" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>5</v>
+      </c>
+      <c r="G25" s="7">
+        <v>9</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
@@ -1271,11 +1505,22 @@
       <c r="D26" s="3">
         <v>73778</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>73776</v>
+      </c>
+      <c r="G26" s="7">
+        <v>73778</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
@@ -1290,11 +1535,22 @@
       <c r="D27" s="3">
         <v>70488</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>70481</v>
+      </c>
+      <c r="G27" s="7">
+        <v>70488</v>
+      </c>
+      <c r="H27" s="7">
+        <v>2</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
@@ -1321,7 +1577,10 @@
       <c r="H28" s="7">
         <v>4</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
@@ -1348,7 +1607,10 @@
       <c r="H29" s="7">
         <v>2</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
@@ -1363,11 +1625,22 @@
       <c r="D30" s="3">
         <v>14</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="E30" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>13</v>
+      </c>
+      <c r="G30" s="7">
+        <v>14</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
@@ -1382,11 +1655,22 @@
       <c r="D31" s="3">
         <v>213</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
+      <c r="E31" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>213</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
@@ -1413,7 +1697,10 @@
       <c r="H32" s="7">
         <v>20</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
@@ -1428,11 +1715,22 @@
       <c r="D33" s="3">
         <v>396</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="E33" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0</v>
+      </c>
+      <c r="G33" s="7">
+        <v>396</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
@@ -1447,11 +1745,22 @@
       <c r="D34" s="3">
         <v>41693</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="E34" s="3">
+        <v>150</v>
+      </c>
+      <c r="F34" s="7">
+        <v>38915</v>
+      </c>
+      <c r="G34" s="7">
+        <v>41693</v>
+      </c>
+      <c r="H34" s="7">
+        <v>150</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
@@ -1466,11 +1775,22 @@
       <c r="D35" s="3">
         <v>20009</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="E35" s="3">
+        <v>3</v>
+      </c>
+      <c r="F35" s="7">
+        <v>19998</v>
+      </c>
+      <c r="G35" s="7">
+        <v>20009</v>
+      </c>
+      <c r="H35" s="7">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
@@ -1489,7 +1809,10 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
@@ -1508,7 +1831,10 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
@@ -1527,7 +1853,10 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
@@ -1546,7 +1875,10 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
@@ -1565,7 +1897,10 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
@@ -1580,11 +1915,22 @@
       <c r="D41" s="3">
         <v>124565</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="E41" s="3">
+        <v>1</v>
+      </c>
+      <c r="F41" s="7">
+        <v>121092</v>
+      </c>
+      <c r="G41" s="7">
+        <v>124565</v>
+      </c>
+      <c r="H41" s="7">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
@@ -1599,11 +1945,22 @@
       <c r="D42" s="3">
         <v>181312</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
+      <c r="E42" s="3">
+        <v>65</v>
+      </c>
+      <c r="F42" s="7">
+        <v>176289</v>
+      </c>
+      <c r="G42" s="7">
+        <v>181312</v>
+      </c>
+      <c r="H42" s="7">
+        <v>65</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
@@ -1622,7 +1979,10 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
+      <c r="I43" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
@@ -1641,7 +2001,10 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
+      <c r="I44" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
@@ -1660,7 +2023,10 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
@@ -1679,7 +2045,10 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="I46" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
@@ -1698,7 +2067,10 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
@@ -1717,7 +2089,10 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
@@ -1736,7 +2111,10 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+      <c r="I49" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
@@ -1746,16 +2124,19 @@
         <v>40</v>
       </c>
       <c r="C50" s="3">
-        <v>75665</v>
+        <v>75718</v>
       </c>
       <c r="D50" s="3">
-        <v>161272</v>
+        <v>161393</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
@@ -1774,7 +2155,10 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
@@ -1793,7 +2177,10 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
@@ -1812,7 +2199,10 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
+      <c r="I53" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
@@ -1831,7 +2221,10 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
@@ -1877,7 +2270,10 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
@@ -1904,7 +2300,10 @@
       <c r="H57" s="7">
         <v>8</v>
       </c>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -1923,7 +2322,10 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -1942,7 +2344,10 @@
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
@@ -1957,11 +2362,22 @@
       <c r="D60" s="3">
         <v>197457</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
+      <c r="E60" s="3">
+        <v>8</v>
+      </c>
+      <c r="F60" s="7">
+        <v>107515</v>
+      </c>
+      <c r="G60" s="7">
+        <v>1942051</v>
+      </c>
+      <c r="H60" s="7">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
@@ -1980,7 +2396,10 @@
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
@@ -2007,7 +2426,10 @@
       <c r="H62" s="7">
         <v>25</v>
       </c>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
@@ -2022,11 +2444,22 @@
       <c r="D63" s="3">
         <v>223302</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="3"/>
+      <c r="E63" s="3">
+        <v>6</v>
+      </c>
+      <c r="F63" s="7">
+        <v>216999</v>
+      </c>
+      <c r="G63" s="7">
+        <v>217185</v>
+      </c>
+      <c r="H63" s="7">
+        <v>5</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
@@ -2045,7 +2478,10 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="I64" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
@@ -2064,7 +2500,10 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="I65" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
@@ -2091,7 +2530,10 @@
       <c r="H66" s="7">
         <v>40</v>
       </c>
-      <c r="I66" s="3"/>
+      <c r="I66" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
@@ -2110,7 +2552,10 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
+      <c r="I67" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
@@ -2129,7 +2574,10 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3">
+        <f t="shared" ref="I68:I72" si="1">E68-H68</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
@@ -2156,7 +2604,10 @@
       <c r="H69" s="7">
         <v>93</v>
       </c>
-      <c r="I69" s="3"/>
+      <c r="I69" s="3">
+        <f t="shared" si="1"/>
+        <v>4433</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
@@ -2175,7 +2626,10 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
+      <c r="I70" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
@@ -2194,7 +2648,10 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
@@ -2221,7 +2678,10 @@
       <c r="H72" s="7">
         <v>20</v>
       </c>
-      <c r="I72" s="3"/>
+      <c r="I72" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2232,7 +2692,7 @@
     <mergeCell ref="F1:H1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D72">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2244,7 +2704,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E72">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2256,7 +2716,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J7">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
